--- a/biology/Botanique/Anatomie_végétale/Anatomie_végétale.xlsx
+++ b/biology/Botanique/Anatomie_végétale/Anatomie_végétale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anatomie_v%C3%A9g%C3%A9tale</t>
+          <t>Anatomie_végétale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anatomie végétale est une branche de la botanique et de l'anatomie. Elle étudie la structure interne des végétaux ainsi que les processus par lesquelles elle s'établit.
 Elle se distingue de la morphologie végétale qui étudie leur aspect extérieur et de la physiologie végétale qui décrit le fonctionnement de la plante, souvent sur la base de la chimie.
